--- a/Pros and poetry Unit 04.xlsx
+++ b/Pros and poetry Unit 04.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mizoram University\Mizoram University\English Pros and Poetry\Grammer Unit 04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46A74D-A9FA-4608-A7BF-12A6108C612C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="225" windowWidth="20640" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="225" windowWidth="20640" windowHeight="15315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
   <si>
     <t>The simple definition is: a person, place or thing. Here are some examples:</t>
   </si>
@@ -563,12 +557,186 @@
       </rPr>
       <t xml:space="preserve"> are hardworking</t>
     </r>
+  </si>
+  <si>
+    <t>Rules for Nouns and its Plurals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule 1 : Add an (s) to form the plural of most of words. </t>
+  </si>
+  <si>
+    <t>Ex :</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Rule 2 :For world that ends in (s,z,x,ch,sh,ss) add (es) to form the plural.</t>
+  </si>
+  <si>
+    <t>Ex:</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Quizes</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Churches</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Boxes</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Rule 3 : If the word ends in a vowel + (y) [ay,ey,iy,oy,uy] add an s to to word.</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Stays</t>
+  </si>
+  <si>
+    <t>Rule 4 : If the word ends in a consonant + (y) change the (y) into (i) and add (es) to form the plural.</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Enimies</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Cherries</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Babies</t>
+  </si>
+  <si>
+    <t>Rule 5 : For words that end in (f), drop the (f) change it to (v) and add (es) for the pluerl.</t>
+  </si>
+  <si>
+    <t>For words that end in (fe), change the (f) to (v) and add (es) to form the plural.</t>
+  </si>
+  <si>
+    <t>Eg :</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Halves</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>Wives</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Rule 6: For nouns that ends in consonents + (o) add (es) to make the noun plural.</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Heroes</t>
+  </si>
+  <si>
+    <t>Volcano</t>
+  </si>
+  <si>
+    <t>Volcanoes</t>
+  </si>
+  <si>
+    <t>Irregular Plural</t>
+  </si>
+  <si>
+    <t>Some nouns do not change into plural.</t>
+  </si>
+  <si>
+    <t>One deer</t>
+  </si>
+  <si>
+    <t>Two deer</t>
+  </si>
+  <si>
+    <t>one sheep</t>
+  </si>
+  <si>
+    <t>Two sheep</t>
+  </si>
+  <si>
+    <t>Some nouns are always plural</t>
+  </si>
+  <si>
+    <t>Glases</t>
+  </si>
+  <si>
+    <t>Pyjamas</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>Cloths</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,8 +795,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -895,18 +1091,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,8 +1602,273 @@
         <v>97</v>
       </c>
     </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>125</v>
+      </c>
+      <c r="B139" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pros and poetry Unit 04.xlsx
+++ b/Pros and poetry Unit 04.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mizoram University\Mizoram University\English Pros and Poetry\Grammer Unit 04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB66D25-6EC5-4CF1-BF35-E3E3532B097A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="225" windowWidth="20640" windowHeight="15315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nouns" sheetId="1" r:id="rId1"/>
+    <sheet name="Adjectives" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>The simple definition is: a person, place or thing. Here are some examples:</t>
   </si>
@@ -731,12 +738,286 @@
   </si>
   <si>
     <t>Cloths</t>
+  </si>
+  <si>
+    <t>Adjectives</t>
+  </si>
+  <si>
+    <t>We use Adjectives to describe a noun or pronoun.</t>
+  </si>
+  <si>
+    <t>An Adjective answers the following questions :-</t>
+  </si>
+  <si>
+    <t>What kind?</t>
+  </si>
+  <si>
+    <t>I found a red rose in the cave.</t>
+  </si>
+  <si>
+    <t>What kind of rose? Red</t>
+  </si>
+  <si>
+    <t>I would eat these cakes.</t>
+  </si>
+  <si>
+    <t>Which cake? These</t>
+  </si>
+  <si>
+    <t>Will you give me three tickets, please.</t>
+  </si>
+  <si>
+    <t>How many tickets?  Three</t>
+  </si>
+  <si>
+    <t>Where an Adjectives goes in a statement</t>
+  </si>
+  <si>
+    <t>Usually an Adjective come in front of the noun it is describing.</t>
+  </si>
+  <si>
+    <t>e.g The big baloon floated over the dark sea.</t>
+  </si>
+  <si>
+    <t>An adjective can also come after certain verbs.  These include :</t>
+  </si>
+  <si>
+    <t>be (am, is , are), seen, look, appear, sound, smell, taste,feel, get, become, remain, keep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjectives are words that describe the qualities or states of being of nouns: enormous, doglike, silly, yellow, fun, fast. </t>
+  </si>
+  <si>
+    <t>They can also describe the quantity of nouns: many, few, millions, eleven.</t>
+  </si>
+  <si>
+    <t>e.g. The room smells good.</t>
+  </si>
+  <si>
+    <t>What Is a Pronoun?</t>
+  </si>
+  <si>
+    <t>Sarah has always loved fashion. Sarah announced that Sarah wants to go to fashion school.</t>
+  </si>
+  <si>
+    <t>You could try to mix it up by sometimes referring to Sarah as “my sister,” but then it sounds like you’re referring to two different people.</t>
+  </si>
+  <si>
+    <t>Sarah has always loved fashion. My sister announced that Sarah wants to go to fashion school.</t>
+  </si>
+  <si>
+    <t>Sarah has always loved fashion. She announced that she wants to go to fashion school.</t>
+  </si>
+  <si>
+    <t>Instead, you can use the pronouns she and her to refer to Sarah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pronouns make up a small subcategory of nouns. The distinguishing characteristic of pronouns is that they can be substituted for other nouns. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For instance, if you’re telling a story about your sister Sarah, </t>
+  </si>
+  <si>
+    <t>the story will begin to sound repetitive if you keep repeating “Sarah” over and over again.</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>A verb is used in a sentence to express any action &amp; existing reality.</t>
+  </si>
+  <si>
+    <t>e.g. play, sing, reading, writing, eating etc.</t>
+  </si>
+  <si>
+    <t>Adverb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adverb expresses more about a verb and adjective.  </t>
+  </si>
+  <si>
+    <t>e.g. quickly, slowly, sincerely etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The boys are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>playing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The man cut vegetables </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>very quickly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Conjection</t>
+  </si>
+  <si>
+    <t>A conjection is used to connect two or more words.</t>
+  </si>
+  <si>
+    <t>e.g. and, or, because, because, but , yet etc.</t>
+  </si>
+  <si>
+    <t>Preposition</t>
+  </si>
+  <si>
+    <t>A preposition is a word used to show the relationship between the noun.</t>
+  </si>
+  <si>
+    <t>e.g in, on, about, to, for, from etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rajesh is hardworking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intelligent also.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rajesh is appearing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> exams </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> January.</t>
+    </r>
+  </si>
+  <si>
+    <t>Interjection</t>
+  </si>
+  <si>
+    <t>An interjection is used to express a strong feeling.</t>
+  </si>
+  <si>
+    <t>Hurrah!, Great!, Damn!, Oh! Etc.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hurrah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! We won the match.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -820,7 +1101,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1091,18 +1372,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,207 +1391,304 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R34" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R40" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -1871,4 +2249,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA599F80-2438-479A-9DC8-3EC96D0C75B9}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>